--- a/data/annotations/new_annotation_structure_out/iteration_9/iteration_9_mistral-large-2411-2.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_9/iteration_9_mistral-large-2411-2.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4561,7 +4561,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7856,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
